--- a/Approvedemail.xlsx
+++ b/Approvedemail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Invoices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,10 +41,10 @@
     <t>@customer.no</t>
   </si>
   <si>
-    <t>martynas.ulinskas@atea.lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@atea.lt </t>
+    <t>@atea.lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skirmante.pukene@atea.lt  </t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Approvedemail.xlsx
+++ b/Approvedemail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\inv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kermit\Desktop\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Customer number</t>
   </si>
@@ -41,16 +41,19 @@
     <t>@customer.no</t>
   </si>
   <si>
+    <t xml:space="preserve">skirmante.pukene@atea.lt  </t>
+  </si>
+  <si>
     <t>@atea.lt</t>
   </si>
   <si>
-    <t xml:space="preserve">skirmante.pukene@atea.lt  </t>
+    <t>sarunas.gerve@atea.lt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,7 +444,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1234567</v>
+        <v>12345</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -451,7 +452,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1234567</v>
+        <v>1234565</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -470,7 +471,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,13 +479,31 @@
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1218032</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1025874</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{D803DC22-ABC0-438B-A753-A3A3784D11F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Approvedemail.xlsx
+++ b/Approvedemail.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kermit\Desktop\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kermit\Documents\UiPath\Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19305" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Manual" sheetId="1" r:id="rId1"/>
+    <sheet name="From SAP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Customer number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Approved email</t>
   </si>
@@ -35,19 +33,76 @@
     <t>mail@accountant.no</t>
   </si>
   <si>
-    <t>@haugesund.kommune.no</t>
-  </si>
-  <si>
-    <t>@customer.no</t>
-  </si>
-  <si>
     <t xml:space="preserve">skirmante.pukene@atea.lt  </t>
   </si>
   <si>
-    <t>@atea.lt</t>
-  </si>
-  <si>
-    <t>sarunas.gerve@atea.lt</t>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Domene Clerks Internet</t>
+  </si>
+  <si>
+    <t>Domene PDF</t>
+  </si>
+  <si>
+    <t>Domene Order Confirmation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>atea.dk</t>
+  </si>
+  <si>
+    <t>dtk-audio.dk</t>
+  </si>
+  <si>
+    <t>ateafinance.se</t>
+  </si>
+  <si>
+    <t>atea.com</t>
+  </si>
+  <si>
+    <t>online.no</t>
+  </si>
+  <si>
+    <t>atea.no</t>
+  </si>
+  <si>
+    <t>hotmail.com</t>
+  </si>
+  <si>
+    <t>atea.se</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>hotmail.no</t>
+  </si>
+  <si>
+    <t>gmail.no</t>
+  </si>
+  <si>
+    <t>online.com</t>
+  </si>
+  <si>
+    <t>ateafinance.dk</t>
+  </si>
+  <si>
+    <t>atea.lt</t>
+  </si>
+  <si>
+    <t>haugesund.kommune.no</t>
+  </si>
+  <si>
+    <t>customer.no</t>
   </si>
 </sst>
 </file>
@@ -92,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -101,6 +156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,22 +474,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +497,7 @@
         <v>1007538</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +505,7 @@
         <v>12345</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +513,7 @@
         <v>1234565</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +521,7 @@
         <v>1007538</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +529,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,32 +537,197 @@
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1218032</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1025874</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{D803DC22-ABC0-438B-A753-A3A3784D11F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1030</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1035</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>